--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>L140</t>
   </si>
@@ -27,9 +27,6 @@
     <t>BL120</t>
   </si>
   <si>
-    <t>d47</t>
-  </si>
-  <si>
     <t>L140_skd</t>
   </si>
   <si>
@@ -39,13 +36,85 @@
     <t>bl96</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>B68_WP</t>
   </si>
   <si>
     <t>B68_SKD</t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>l260</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>d54+</t>
+  </si>
+  <si>
+    <t>BL96</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>Atom2</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>L270</t>
+  </si>
+  <si>
+    <t>Z35/32</t>
+  </si>
+  <si>
+    <t>L250i</t>
+  </si>
+  <si>
+    <t>Z40</t>
+  </si>
+  <si>
+    <t>i32</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>g10+</t>
+  </si>
+  <si>
+    <t>l95</t>
+  </si>
+  <si>
+    <t>l135</t>
+  </si>
+  <si>
+    <t>z30</t>
+  </si>
+  <si>
+    <t>l44</t>
+  </si>
+  <si>
+    <t>z30pro</t>
+  </si>
+  <si>
+    <t>bl99</t>
+  </si>
+  <si>
+    <t>b67</t>
   </si>
 </sst>
 </file>
@@ -94,11 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,10 +449,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,269 +463,340 @@
     <col min="3" max="4" width="23.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="1"/>
+    <col min="7" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>350053612055140</v>
       </c>
-      <c r="B2" s="1">
-        <v>351251781555747</v>
-      </c>
       <c r="C2" s="2">
         <v>354340118950908</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="F2" s="1">
-        <v>350954041383641</v>
-      </c>
-      <c r="G2" s="1">
-        <v>357656105458382</v>
-      </c>
       <c r="H2" s="1">
         <v>357330672751781</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>357656105430407</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <v>352451261499262</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>350942911978780</v>
+      </c>
+      <c r="R2" s="1">
+        <v>357858821204641</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
+        <v>354580881168689</v>
+      </c>
+      <c r="V2" s="1">
+        <v>359943106234006</v>
+      </c>
+      <c r="W2" s="1">
+        <v>359312601046788</v>
+      </c>
+      <c r="X2" s="1">
+        <v>352510171476908</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>356982503081720</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>357398295474289</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>356184721312082</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>355964112734825</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1">
+        <v>355066111959229</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="4">
+        <v>359833621701466</v>
+      </c>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>350053612061148</v>
       </c>
-      <c r="B3" s="1">
-        <v>351251781055581</v>
-      </c>
       <c r="C3" s="2">
         <v>354340118331323</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="F3" s="1">
-        <v>350954041383740</v>
-      </c>
-      <c r="G3" s="1">
-        <v>357656105369043</v>
-      </c>
       <c r="H3" s="1">
         <v>357330672718046</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>357656104965064</v>
+      </c>
+      <c r="P3">
+        <v>355029534323969</v>
+      </c>
+      <c r="U3">
+        <v>354580881132107</v>
+      </c>
+      <c r="V3">
+        <v>359943106332842</v>
+      </c>
+      <c r="W3">
+        <v>359312601027523</v>
+      </c>
+      <c r="Y3">
+        <v>356982502343089</v>
+      </c>
+      <c r="AD3">
+        <v>355066111996965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>350053612306162</v>
       </c>
-      <c r="B4" s="1">
-        <v>351251781556588</v>
-      </c>
       <c r="C4" s="2">
         <v>354340119338889</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="1">
-        <v>350954041382767</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>357330672715604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>350053610466224</v>
-      </c>
-      <c r="B5" s="1">
-        <v>351251781556786</v>
-      </c>
+      <c r="N4" s="1">
+        <v>357656104957129</v>
+      </c>
+      <c r="P4">
+        <v>355029533076204</v>
+      </c>
+      <c r="V4">
+        <v>359943106210501</v>
+      </c>
+      <c r="Y4">
+        <v>356982500457683</v>
+      </c>
+      <c r="AD4">
+        <v>355066111586204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>354340119125948</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="1">
-        <v>350954041382908</v>
-      </c>
-      <c r="H5" s="1">
-        <v>357330672717980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>350053612136965</v>
-      </c>
-      <c r="B6" s="1">
-        <v>351251781247642</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="N5" s="1">
+        <v>357656103352926</v>
+      </c>
+      <c r="V5">
+        <v>359943106250382</v>
+      </c>
+      <c r="Y5">
+        <v>356982501812688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>354340115335541</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="1">
-        <v>350954041957022</v>
-      </c>
-      <c r="H6" s="1">
-        <v>357330672642766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>350053611233029</v>
-      </c>
-      <c r="B7" s="1">
-        <v>351251781247600</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="N6" s="1">
+        <v>357656104999907</v>
+      </c>
+      <c r="V6">
+        <v>359943106160268</v>
+      </c>
+      <c r="Y6">
+        <v>356982500169668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>354340118943085</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="1">
-        <v>350954041957543</v>
-      </c>
-      <c r="H7" s="1">
-        <v>357330672596269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>350053612137187</v>
-      </c>
-      <c r="B8" s="1">
-        <v>351251781332766</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="N7" s="1">
+        <v>352611791767641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>354340118927344</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="1">
-        <v>350954041957667</v>
-      </c>
-      <c r="H8" s="1">
-        <v>357330672636248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>350053612130968</v>
-      </c>
-      <c r="B9" s="1">
-        <v>351251781055722</v>
-      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="F9" s="1">
-        <v>350954041957444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>350053612137104</v>
-      </c>
-      <c r="B10" s="1">
-        <v>351251781055680</v>
-      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="F10" s="1">
-        <v>350954041954102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>350053612131081</v>
-      </c>
-      <c r="B11" s="1">
-        <v>351251781024686</v>
-      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="1">
-        <v>350954041951843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>350053612055223</v>
-      </c>
-      <c r="B12" s="1">
-        <v>351251781247584</v>
-      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>350954041954060</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>350053612353685</v>
-      </c>
-      <c r="B13" s="1">
-        <v>351251781557321</v>
-      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="F13" s="1">
-        <v>350954041952049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>350053612110341</v>
-      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="F14" s="1">
-        <v>350954041954185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="F15" s="1">
-        <v>351251781408889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="F16" s="1">
-        <v>350954042139687</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="1">
-        <v>350954042139489</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="F18" s="1">
-        <v>350954041010889</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
   </sheetData>

--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>L140</t>
   </si>
@@ -30,9 +31,6 @@
     <t>L140_skd</t>
   </si>
   <si>
-    <t>D47_SKD</t>
-  </si>
-  <si>
     <t>bl96</t>
   </si>
   <si>
@@ -42,9 +40,6 @@
     <t>B68_SKD</t>
   </si>
   <si>
-    <t>L42</t>
-  </si>
-  <si>
     <t>L46</t>
   </si>
   <si>
@@ -115,12 +110,90 @@
   </si>
   <si>
     <t>b67</t>
+  </si>
+  <si>
+    <t>INV-48-7649710</t>
+  </si>
+  <si>
+    <t>Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>Mondol Mobile Center</t>
+  </si>
+  <si>
+    <t>NV-48-7649885</t>
+  </si>
+  <si>
+    <t>M.M Telecom</t>
+  </si>
+  <si>
+    <t>INV-48-7649914</t>
+  </si>
+  <si>
+    <t>Ma Moni</t>
+  </si>
+  <si>
+    <t>INV-48-7649927</t>
+  </si>
+  <si>
+    <t>Jakir Telecom</t>
+  </si>
+  <si>
+    <t>BL99</t>
+  </si>
+  <si>
+    <t>Rasel Telecom</t>
+  </si>
+  <si>
+    <t>INV-48-7650062</t>
+  </si>
+  <si>
+    <t>Biswas Telecom</t>
+  </si>
+  <si>
+    <t>INV-48-7650109</t>
+  </si>
+  <si>
+    <t>Reja Electronics</t>
+  </si>
+  <si>
+    <t>INV-48-7649935</t>
+  </si>
+  <si>
+    <t>Nahid Telecom</t>
+  </si>
+  <si>
+    <t>Invoice No</t>
+  </si>
+  <si>
+    <t>Invoice ID</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>Dealer Name</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Imei</t>
+  </si>
+  <si>
+    <t>B68_WHP_SKD  to  B68_SKD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,15 +216,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,16 +238,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +581,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AG9" sqref="AG9"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,97 +610,94 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -580,7 +707,15 @@
       <c r="C2" s="2">
         <v>354340118950908</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>357330673832762</v>
+      </c>
+      <c r="E2" s="1">
+        <v>354150814245382</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="1">
         <v>357330672751781</v>
       </c>
@@ -641,7 +776,15 @@
       <c r="C3" s="2">
         <v>354340118331323</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>357330673832689</v>
+      </c>
+      <c r="E3" s="1">
+        <v>354150814245408</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H3" s="1">
         <v>357330672718046</v>
       </c>
@@ -803,4 +946,1649 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G325"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>357330673832762</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7">
+        <v>17930909</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>357330673832689</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7">
+        <v>17930909</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E4" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>357330673832945</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17929371</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>357330673833323</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7">
+        <v>17929377</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E6" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>357330673833125</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7">
+        <v>17929377</v>
+      </c>
+      <c r="D7" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E7" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>357330673856480</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1790256</v>
+      </c>
+      <c r="D8" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E8" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>357330673856381</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7">
+        <v>1790256</v>
+      </c>
+      <c r="D9" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E9" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>357330673846127</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7">
+        <v>1790256</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E10" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>357330673833067</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7">
+        <v>1790256</v>
+      </c>
+      <c r="D11" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E11" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>357330673833026</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7">
+        <v>1790256</v>
+      </c>
+      <c r="D12" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E12" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>357330673833547</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7">
+        <v>1790256</v>
+      </c>
+      <c r="D13" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E13" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>357330673833307</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7">
+        <v>1790256</v>
+      </c>
+      <c r="D14" s="9">
+        <v>44515</v>
+      </c>
+      <c r="E14" s="9">
+        <v>44516</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>357330673856464</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11">
+        <v>17929202</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44515</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44516</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>357330673859526</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11">
+        <v>17929202</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44515</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44516</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>357330673859781</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11">
+        <v>17929207</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44515</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44516</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>357330673856522</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11">
+        <v>17930039</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44515</v>
+      </c>
+      <c r="E18" s="12">
+        <v>44516</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+    </row>
+    <row r="229" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="230" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+    </row>
+    <row r="239" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+    </row>
+    <row r="240" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+    </row>
+    <row r="242" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+    </row>
+    <row r="243" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+    </row>
+    <row r="244" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+    </row>
+    <row r="245" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+    </row>
+    <row r="246" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+    </row>
+    <row r="247" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+    </row>
+    <row r="248" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+    </row>
+    <row r="249" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+    </row>
+    <row r="250" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="251" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+    </row>
+    <row r="252" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+    </row>
+    <row r="253" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+    </row>
+    <row r="254" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+    </row>
+    <row r="255" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+    </row>
+    <row r="256" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+    </row>
+    <row r="257" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+    </row>
+    <row r="258" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+    </row>
+    <row r="259" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+    </row>
+    <row r="260" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+    </row>
+    <row r="261" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+    </row>
+    <row r="262" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+    </row>
+    <row r="263" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+    </row>
+    <row r="264" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+    </row>
+    <row r="265" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+    </row>
+    <row r="266" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+    </row>
+    <row r="267" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="268" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+    </row>
+    <row r="269" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+    </row>
+    <row r="270" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+    </row>
+    <row r="271" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+    </row>
+    <row r="272" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+    </row>
+    <row r="274" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+    </row>
+    <row r="275" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+    </row>
+    <row r="276" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+    </row>
+    <row r="278" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+    </row>
+    <row r="281" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+    </row>
+    <row r="282" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+    </row>
+    <row r="283" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+    </row>
+    <row r="284" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+    </row>
+    <row r="285" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+    </row>
+    <row r="288" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+    </row>
+    <row r="289" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+    </row>
+    <row r="290" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+    </row>
+    <row r="291" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+    </row>
+    <row r="292" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+    </row>
+    <row r="293" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+    </row>
+    <row r="294" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+    </row>
+    <row r="295" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+    </row>
+    <row r="296" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+    </row>
+    <row r="297" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+    </row>
+    <row r="298" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+    </row>
+    <row r="299" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+    </row>
+    <row r="300" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+    </row>
+    <row r="301" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+    </row>
+    <row r="302" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+    </row>
+    <row r="303" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+    </row>
+    <row r="304" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+    </row>
+    <row r="305" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+    </row>
+    <row r="306" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+    </row>
+    <row r="307" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+    </row>
+    <row r="308" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="309" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+    </row>
+    <row r="310" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+    </row>
+    <row r="311" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+    </row>
+    <row r="312" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+    </row>
+    <row r="313" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+    </row>
+    <row r="314" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+    </row>
+    <row r="315" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+    </row>
+    <row r="316" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="317" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+    </row>
+    <row r="318" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+    </row>
+    <row r="319" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+    </row>
+    <row r="320" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+    </row>
+    <row r="321" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+    </row>
+    <row r="322" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+    </row>
+    <row r="323" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D323" s="6"/>
+      <c r="E323" s="6"/>
+    </row>
+    <row r="324" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+    </row>
+    <row r="325" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -451,7 +451,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,9 +574,6 @@
       <c r="B2" s="2">
         <v>354340118950908</v>
       </c>
-      <c r="C2" s="1">
-        <v>357330674179882</v>
-      </c>
       <c r="D2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>30</v>
@@ -641,9 +638,6 @@
       <c r="B3" s="2">
         <v>354340118331323</v>
       </c>
-      <c r="C3" s="1">
-        <v>357330674174529</v>
-      </c>
       <c r="D3" s="2"/>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -680,9 +674,6 @@
       <c r="B4" s="2">
         <v>354340119338889</v>
       </c>
-      <c r="C4" s="1">
-        <v>357330674174446</v>
-      </c>
       <c r="D4" s="2"/>
       <c r="N4" s="1">
         <v>357656104957129</v>
@@ -704,9 +695,6 @@
       <c r="B5" s="2">
         <v>354340119125948</v>
       </c>
-      <c r="C5" s="1">
-        <v>357330674179866</v>
-      </c>
       <c r="D5" s="2"/>
       <c r="N5" s="1">
         <v>357656103352926</v>
@@ -722,9 +710,6 @@
       <c r="B6" s="2">
         <v>354340115335541</v>
       </c>
-      <c r="C6" s="1">
-        <v>357330674180047</v>
-      </c>
       <c r="D6" s="2"/>
       <c r="N6" s="1">
         <v>357656104999907</v>
@@ -740,9 +725,6 @@
       <c r="B7" s="2">
         <v>354340118943085</v>
       </c>
-      <c r="C7" s="1">
-        <v>357330674174149</v>
-      </c>
       <c r="D7" s="2"/>
       <c r="N7" s="1">
         <v>352611791767641</v>
@@ -752,58 +734,41 @@
       <c r="B8" s="2">
         <v>354340118927344</v>
       </c>
-      <c r="C8" s="1">
-        <v>357330674179924</v>
-      </c>
       <c r="D8" s="2"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <v>357330674174206</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
-        <v>357330674180468</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
-        <v>357330674175062</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
-        <v>357330674174222</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
-        <v>357330674179825</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
-        <v>357330674179643</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
-        <v>357330674174107</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="N15" s="1"/>
     </row>

--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -451,7 +451,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C12"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +575,9 @@
         <v>354340118950908</v>
       </c>
       <c r="D2" s="3"/>
+      <c r="E2" s="1">
+        <v>354150814039504</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>

--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -451,7 +451,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,9 @@
       <c r="B2" s="2">
         <v>354340118950908</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>357330673859666</v>
+      </c>
       <c r="E2" s="1">
         <v>354150814039504</v>
       </c>
@@ -641,7 +643,9 @@
       <c r="B3" s="2">
         <v>354340118331323</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>357330674179965</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
@@ -677,7 +681,9 @@
       <c r="B4" s="2">
         <v>354340119338889</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>357330673859765</v>
+      </c>
       <c r="N4" s="1">
         <v>357656104957129</v>
       </c>
@@ -698,7 +704,9 @@
       <c r="B5" s="2">
         <v>354340119125948</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>357330673832887</v>
+      </c>
       <c r="N5" s="1">
         <v>357656103352926</v>
       </c>

--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>L140</t>
   </si>
@@ -33,24 +33,12 @@
     <t>B68_WP</t>
   </si>
   <si>
-    <t>B68_SKD</t>
-  </si>
-  <si>
     <t>L46</t>
   </si>
   <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>l260</t>
-  </si>
-  <si>
     <t>D48</t>
   </si>
   <si>
-    <t>d54+</t>
-  </si>
-  <si>
     <t>BL96</t>
   </si>
   <si>
@@ -63,12 +51,6 @@
     <t>Atom2</t>
   </si>
   <si>
-    <t>B69</t>
-  </si>
-  <si>
-    <t>L270</t>
-  </si>
-  <si>
     <t>Z35/32</t>
   </si>
   <si>
@@ -90,28 +72,19 @@
     <t>l95</t>
   </si>
   <si>
-    <t>l135</t>
-  </si>
-  <si>
     <t>z30</t>
   </si>
   <si>
-    <t>l44</t>
-  </si>
-  <si>
     <t>z30pro</t>
   </si>
   <si>
-    <t>bl99</t>
-  </si>
-  <si>
-    <t>b67</t>
-  </si>
-  <si>
     <t>BL99</t>
   </si>
   <si>
-    <t>Rasel Telecom</t>
+    <t>D82_SKD</t>
+  </si>
+  <si>
+    <t>l33</t>
   </si>
 </sst>
 </file>
@@ -160,12 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,12 +418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,13 +432,14 @@
     <col min="3" max="4" width="23.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="31" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,342 +447,379 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>350053612055140</v>
       </c>
       <c r="B2" s="2">
         <v>354340118950908</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="1">
+        <v>359546981452260</v>
+      </c>
+      <c r="D2" s="2">
         <v>357330673859666</v>
       </c>
       <c r="E2" s="1">
         <v>354150814039504</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
+      <c r="F2" s="1">
+        <v>359946901450941</v>
       </c>
       <c r="G2" s="1">
         <v>352611791808684</v>
       </c>
+      <c r="H2" s="1">
+        <v>357656105430407</v>
+      </c>
+      <c r="J2" s="1">
+        <v>352451261499262</v>
+      </c>
+      <c r="K2" s="1">
+        <v>350942911978780</v>
+      </c>
+      <c r="L2" s="1">
+        <v>357858821204641</v>
+      </c>
+      <c r="M2" s="1">
+        <v>354580881168689</v>
+      </c>
       <c r="N2" s="1">
-        <v>357656105430407</v>
-      </c>
-      <c r="O2" s="1"/>
+        <v>359943106234006</v>
+      </c>
+      <c r="O2" s="1">
+        <v>359312601046788</v>
+      </c>
       <c r="P2" s="1">
-        <v>352451261499262</v>
+        <v>352510171476908</v>
       </c>
       <c r="Q2" s="1">
-        <v>350942911978780</v>
+        <v>356982503081720</v>
       </c>
       <c r="R2" s="1">
-        <v>357858821204641</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+        <v>357398295474289</v>
+      </c>
+      <c r="S2" s="1">
+        <v>356184721312082</v>
+      </c>
+      <c r="T2" s="1">
+        <v>355964112734825</v>
+      </c>
       <c r="U2" s="1">
-        <v>354580881168689</v>
-      </c>
-      <c r="V2" s="1">
-        <v>359943106234006</v>
-      </c>
-      <c r="W2" s="1">
-        <v>359312601046788</v>
-      </c>
-      <c r="X2" s="1">
-        <v>352510171476908</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>356982503081720</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>357398295474289</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>356184721312082</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>355964112734825</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1">
         <v>355066111959229</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="4">
+      <c r="V2" s="2">
         <v>359833621701466</v>
       </c>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>350053612061148</v>
       </c>
       <c r="B3" s="2">
         <v>354340118331323</v>
       </c>
+      <c r="C3" s="1">
+        <v>359546981442584</v>
+      </c>
       <c r="D3" s="2">
         <v>357330674179965</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
+      <c r="F3" s="1">
+        <v>359946901619826</v>
       </c>
       <c r="G3" s="1">
         <v>352611791801382</v>
       </c>
+      <c r="H3" s="1">
+        <v>357656104965064</v>
+      </c>
+      <c r="J3" s="1">
+        <v>355029534323969</v>
+      </c>
+      <c r="M3" s="1">
+        <v>354580881132107</v>
+      </c>
       <c r="N3" s="1">
-        <v>357656104965064</v>
-      </c>
-      <c r="P3">
-        <v>355029534323969</v>
-      </c>
-      <c r="U3">
-        <v>354580881132107</v>
-      </c>
-      <c r="V3">
         <v>359943106332842</v>
       </c>
-      <c r="W3">
+      <c r="O3" s="1">
         <v>359312601027523</v>
       </c>
-      <c r="Y3">
+      <c r="Q3" s="1">
         <v>356982502343089</v>
       </c>
-      <c r="AD3">
+      <c r="U3" s="1">
         <v>355066111996965</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>350053612306162</v>
       </c>
       <c r="B4" s="2">
         <v>354340119338889</v>
       </c>
+      <c r="C4" s="1">
+        <v>359546981442527</v>
+      </c>
       <c r="D4" s="2">
         <v>357330673859765</v>
       </c>
+      <c r="H4" s="1">
+        <v>357656104957129</v>
+      </c>
+      <c r="J4" s="1">
+        <v>355029533076204</v>
+      </c>
       <c r="N4" s="1">
-        <v>357656104957129</v>
-      </c>
-      <c r="P4">
-        <v>355029533076204</v>
-      </c>
-      <c r="V4">
         <v>359943106210501</v>
       </c>
-      <c r="Y4">
+      <c r="Q4" s="1">
         <v>356982500457683</v>
       </c>
-      <c r="AD4">
+      <c r="U4" s="1">
         <v>355066111586204</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>354340119125948</v>
       </c>
+      <c r="C5" s="1">
+        <v>359546981452302</v>
+      </c>
       <c r="D5" s="2">
         <v>357330673832887</v>
       </c>
+      <c r="H5" s="1">
+        <v>357656103352926</v>
+      </c>
       <c r="N5" s="1">
-        <v>357656103352926</v>
-      </c>
-      <c r="V5">
         <v>359943106250382</v>
       </c>
-      <c r="Y5">
+      <c r="Q5" s="1">
         <v>356982501812688</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>354340115335541</v>
       </c>
+      <c r="C6" s="1">
+        <v>359546981442642</v>
+      </c>
       <c r="D6" s="2"/>
+      <c r="H6" s="1">
+        <v>357656104999907</v>
+      </c>
       <c r="N6" s="1">
-        <v>357656104999907</v>
-      </c>
-      <c r="V6">
         <v>359943106160268</v>
       </c>
-      <c r="Y6">
+      <c r="Q6" s="1">
         <v>356982500169668</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>354340118943085</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="N7" s="1">
+      <c r="H7" s="1">
         <v>352611791767641</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>354340118927344</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
+    <row r="23" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -423,7 +423,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,9 +517,7 @@
       <c r="C2" s="1">
         <v>359546981452260</v>
       </c>
-      <c r="D2" s="2">
-        <v>357330673859666</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>354150814039504</v>
       </c>
@@ -582,9 +580,7 @@
       <c r="C3" s="1">
         <v>359546981442584</v>
       </c>
-      <c r="D3" s="2">
-        <v>357330674179965</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="F3" s="1">
         <v>359946901619826</v>
       </c>
@@ -623,9 +619,7 @@
       <c r="C4" s="1">
         <v>359546981442527</v>
       </c>
-      <c r="D4" s="2">
-        <v>357330673859765</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="H4" s="1">
         <v>357656104957129</v>
       </c>
@@ -649,9 +643,7 @@
       <c r="C5" s="1">
         <v>359546981452302</v>
       </c>
-      <c r="D5" s="2">
-        <v>357330673832887</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="H5" s="1">
         <v>357656103352926</v>
       </c>

--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -30,9 +30,6 @@
     <t>bl96</t>
   </si>
   <si>
-    <t>B68_WP</t>
-  </si>
-  <si>
     <t>L46</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>l33</t>
+  </si>
+  <si>
+    <t>bl99</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,64 +447,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -517,15 +517,14 @@
       <c r="C2" s="1">
         <v>359546981452260</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>354150815586727</v>
+      </c>
       <c r="E2" s="1">
         <v>354150814039504</v>
       </c>
       <c r="F2" s="1">
         <v>359946901450941</v>
-      </c>
-      <c r="G2" s="1">
-        <v>352611791808684</v>
       </c>
       <c r="H2" s="1">
         <v>357656105430407</v>
@@ -580,12 +579,11 @@
       <c r="C3" s="1">
         <v>359546981442584</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>354150815586768</v>
+      </c>
       <c r="F3" s="1">
         <v>359946901619826</v>
-      </c>
-      <c r="G3" s="1">
-        <v>352611791801382</v>
       </c>
       <c r="H3" s="1">
         <v>357656104965064</v>

--- a/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -423,7 +423,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +674,9 @@
       <c r="B7" s="2">
         <v>354340118943085</v>
       </c>
+      <c r="C7" s="1">
+        <v>359546981678864</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="H7" s="1">
         <v>352611791767641</v>
@@ -683,22 +686,33 @@
       <c r="B8" s="2">
         <v>354340118927344</v>
       </c>
+      <c r="C8" s="1">
+        <v>359546981700866</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>359546981700767</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>359546981700965</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>359546981701161</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>359546981700924</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
